--- a/carpetaCliente/archivoACopiar.xlsx
+++ b/carpetaCliente/archivoACopiar.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3167e73f329bcdd9/Documentos/NetBeansProjects/AlmacenDeLibrosTarea2/carpetaCliente/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arlisi\OneDrive\Documentos\NetBeansProjects\AlmacenDeLibrosTarea2\carpetaCliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="14_{47DAAC83-ADD1-44B6-B992-774AA7111F99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
